--- a/src/test/resources/BranchLibrary.xlsx
+++ b/src/test/resources/BranchLibrary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="BranchDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="BranchLib" sheetId="1" r:id="rId1"/>
     <sheet name="Backup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -15,7 +15,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+  <si>
+    <t>BranchNum</t>
+  </si>
+  <si>
+    <t>ScenarioType</t>
+  </si>
+  <si>
+    <t>J/Pnumber</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>FANumber</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
   <si>
     <t>branch1</t>
   </si>
@@ -29,6 +47,30 @@
     <t>jdhdgdhd</t>
   </si>
   <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Role3</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>PFA</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>QE</t>
+  </si>
+  <si>
     <t>abcgshd</t>
   </si>
   <si>
@@ -39,43 +81,14 @@
   </si>
   <si>
     <t>yrewd</t>
-  </si>
-  <si>
-    <t>Col1</t>
-  </si>
-  <si>
-    <t>Col2</t>
-  </si>
-  <si>
-    <t>Col3</t>
-  </si>
-  <si>
-    <t>Col4</t>
-  </si>
-  <si>
-    <t>Col5</t>
-  </si>
-  <si>
-    <t>Col6</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -99,29 +112,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,199 +421,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5273</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2">
+        <v>8765868</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>6756783</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5273</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>9665868</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5273</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>1265868</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12397</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>8765868</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>5273</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>12397</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>9065868</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>66756</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
         <v>8765868</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>5273</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6756783</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>5273</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9665868</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>5273</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1265868</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>12397</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>66756</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
         <v>8765868</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>12397</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9065868</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>66756</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2">
-        <v>8765868</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>66756</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8765868</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
+      <c r="F9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -625,11 +620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
